--- a/PointsTiming/التجمع/Daily/تجمع يوم 27-7-2025.xlsx
+++ b/PointsTiming/التجمع/Daily/تجمع يوم 27-7-2025.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926" firstSheet="11" activeTab="17"/>
+    <workbookView windowWidth="19200" windowHeight="7510" tabRatio="926" firstSheet="11" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="1- اكتوبر وزايد" sheetId="1" r:id="rId1"/>
@@ -5389,12 +5389,12 @@
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:F15"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="$A6:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="5"/>
@@ -5480,7 +5480,7 @@
         <v>270</v>
       </c>
       <c r="B6" s="61">
-        <v>0.118055555555556</v>
+        <v>0.135416666666667</v>
       </c>
       <c r="C6" s="62"/>
       <c r="D6" s="62"/>
@@ -6470,7 +6470,7 @@
   <sheetPr/>
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:B10"/>
     </sheetView>
   </sheetViews>
